--- a/data/proteome-tree/fungal-order-representatives-andlignindegraders.xlsx
+++ b/data/proteome-tree/fungal-order-representatives-andlignindegraders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idamei/polyphenol-oxidases/data/proteome-tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C97492-26A8-D446-8918-CF0E7B7A10BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F9BE91-D041-3548-987E-D752EB7FA9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{F34EA43B-7253-AB4E-9513-D252BA355A57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="518">
   <si>
     <t>UP000799437</t>
   </si>
@@ -1581,16 +1581,32 @@
   </si>
   <si>
     <t>completeness_score</t>
+  </si>
+  <si>
+    <t>UP000838763</t>
+  </si>
+  <si>
+    <t>Parascedosporium</t>
+  </si>
+  <si>
+    <t>Parascedosporium putredinis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1628,10 +1644,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1966,10 +1983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2218D0C7-4F40-C446-9F60-7FFBC88C7139}">
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2207,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y64" si="0">L3*100/Q3</f>
+        <f t="shared" ref="Y3:Y65" si="0">L3*100/Q3</f>
         <v>94.426835710512421</v>
       </c>
     </row>
@@ -5021,7 +5038,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>515</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -5039,34 +5056,34 @@
         <v>211</v>
       </c>
       <c r="G40" t="s">
-        <v>212</v>
-      </c>
-      <c r="H40" t="s">
-        <v>213</v>
+        <v>516</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="I40">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J40">
-        <v>563466</v>
+        <v>1442378</v>
       </c>
       <c r="K40" t="s">
-        <v>214</v>
+        <v>517</v>
       </c>
       <c r="L40">
-        <v>3094</v>
+        <v>2569</v>
       </c>
       <c r="M40">
-        <v>3081</v>
+        <v>2529</v>
       </c>
       <c r="N40">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="O40">
-        <v>36</v>
+        <v>530</v>
       </c>
       <c r="P40">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="Q40">
         <v>3817</v>
@@ -5075,7 +5092,7 @@
         <v>181</v>
       </c>
       <c r="S40">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -5091,15 +5108,11 @@
       </c>
       <c r="X40" t="s">
         <v>9</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="0"/>
-        <v>81.058422845166362</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -5111,40 +5124,40 @@
         <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G41" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H41" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J41">
-        <v>1391915</v>
+        <v>563466</v>
       </c>
       <c r="K41" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L41">
-        <v>3656</v>
+        <v>3094</v>
       </c>
       <c r="M41">
-        <v>3650</v>
+        <v>3081</v>
       </c>
       <c r="N41">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O41">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P41">
-        <v>118</v>
+        <v>687</v>
       </c>
       <c r="Q41">
         <v>3817</v>
@@ -5153,7 +5166,7 @@
         <v>181</v>
       </c>
       <c r="S41">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -5172,12 +5185,12 @@
       </c>
       <c r="Y41">
         <f t="shared" si="0"/>
-        <v>95.782027770500392</v>
+        <v>81.058422845166362</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>459</v>
+      <c r="A42" t="s">
+        <v>215</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -5189,40 +5202,40 @@
         <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>460</v>
+        <v>217</v>
       </c>
       <c r="G42" t="s">
-        <v>461</v>
+        <v>218</v>
       </c>
       <c r="H42" t="s">
-        <v>462</v>
+        <v>219</v>
       </c>
       <c r="I42">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J42">
-        <v>515849</v>
+        <v>1391915</v>
       </c>
       <c r="K42" t="s">
-        <v>463</v>
+        <v>220</v>
       </c>
       <c r="L42">
-        <v>3744</v>
+        <v>3656</v>
       </c>
       <c r="M42">
-        <v>3739</v>
+        <v>3650</v>
       </c>
       <c r="N42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O42">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="P42">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="Q42">
         <v>3817</v>
@@ -5231,7 +5244,7 @@
         <v>181</v>
       </c>
       <c r="S42">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -5250,12 +5263,12 @@
       </c>
       <c r="Y42">
         <f t="shared" si="0"/>
-        <v>98.087503274823163</v>
+        <v>95.782027770500392</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -5270,37 +5283,37 @@
         <v>221</v>
       </c>
       <c r="F43" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G43" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H43" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I43">
         <v>17</v>
       </c>
       <c r="J43">
-        <v>306901</v>
+        <v>515849</v>
       </c>
       <c r="K43" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L43">
-        <v>3274</v>
+        <v>3744</v>
       </c>
       <c r="M43">
-        <v>3266</v>
+        <v>3739</v>
       </c>
       <c r="N43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O43">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="P43">
-        <v>275</v>
+        <v>47</v>
       </c>
       <c r="Q43">
         <v>3817</v>
@@ -5309,7 +5322,7 @@
         <v>181</v>
       </c>
       <c r="S43">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -5328,12 +5341,12 @@
       </c>
       <c r="Y43">
         <f t="shared" si="0"/>
-        <v>85.774168194917479</v>
+        <v>98.087503274823163</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -5351,34 +5364,34 @@
         <v>465</v>
       </c>
       <c r="G44" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H44" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="I44">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J44">
-        <v>578455</v>
+        <v>306901</v>
       </c>
       <c r="K44" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L44">
-        <v>3646</v>
+        <v>3274</v>
       </c>
       <c r="M44">
-        <v>3633</v>
+        <v>3266</v>
       </c>
       <c r="N44">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O44">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="P44">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="Q44">
         <v>3817</v>
@@ -5387,7 +5400,7 @@
         <v>181</v>
       </c>
       <c r="S44">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -5406,12 +5419,12 @@
       </c>
       <c r="Y44">
         <f t="shared" si="0"/>
-        <v>95.520041917736435</v>
+        <v>85.774168194917479</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -5429,34 +5442,34 @@
         <v>465</v>
       </c>
       <c r="G45" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H45" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="I45">
         <v>10</v>
       </c>
       <c r="J45">
-        <v>573729</v>
+        <v>578455</v>
       </c>
       <c r="K45" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L45">
         <v>3646</v>
       </c>
       <c r="M45">
-        <v>3640</v>
+        <v>3633</v>
       </c>
       <c r="N45">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O45">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P45">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q45">
         <v>3817</v>
@@ -5488,8 +5501,8 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>222</v>
+      <c r="A46" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -5504,37 +5517,37 @@
         <v>221</v>
       </c>
       <c r="F46" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="G46" t="s">
-        <v>224</v>
+        <v>470</v>
       </c>
       <c r="H46" t="s">
-        <v>225</v>
+        <v>471</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J46">
-        <v>367110</v>
+        <v>573729</v>
       </c>
       <c r="K46" t="s">
-        <v>226</v>
+        <v>472</v>
       </c>
       <c r="L46">
-        <v>3788</v>
+        <v>3646</v>
       </c>
       <c r="M46">
-        <v>3340</v>
+        <v>3640</v>
       </c>
       <c r="N46">
-        <v>448</v>
+        <v>6</v>
       </c>
       <c r="O46">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="P46">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="Q46">
         <v>3817</v>
@@ -5543,7 +5556,7 @@
         <v>181</v>
       </c>
       <c r="S46">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -5562,12 +5575,12 @@
       </c>
       <c r="Y46">
         <f t="shared" si="0"/>
-        <v>99.240241026984549</v>
+        <v>95.520041917736435</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -5579,40 +5592,40 @@
         <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F47" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G47" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H47" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I47">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J47">
-        <v>37992</v>
+        <v>367110</v>
       </c>
       <c r="K47" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L47">
-        <v>3626</v>
+        <v>3788</v>
       </c>
       <c r="M47">
-        <v>3616</v>
+        <v>3340</v>
       </c>
       <c r="N47">
-        <v>10</v>
+        <v>448</v>
       </c>
       <c r="O47">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="P47">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="Q47">
         <v>3817</v>
@@ -5621,7 +5634,7 @@
         <v>181</v>
       </c>
       <c r="S47">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -5640,66 +5653,66 @@
       </c>
       <c r="Y47">
         <f t="shared" si="0"/>
-        <v>94.996070212208537</v>
+        <v>99.240241026984549</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>485</v>
+      <c r="A48" t="s">
+        <v>227</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F48" t="s">
-        <v>486</v>
+        <v>229</v>
       </c>
       <c r="G48" t="s">
-        <v>487</v>
+        <v>230</v>
       </c>
       <c r="H48" t="s">
-        <v>488</v>
+        <v>231</v>
       </c>
       <c r="I48">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J48">
-        <v>240176</v>
+        <v>37992</v>
       </c>
       <c r="K48" t="s">
-        <v>489</v>
+        <v>231</v>
       </c>
       <c r="L48">
-        <v>3708</v>
+        <v>3626</v>
       </c>
       <c r="M48">
-        <v>3683</v>
+        <v>3616</v>
       </c>
       <c r="N48">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O48">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="P48">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="Q48">
-        <v>3870</v>
+        <v>3817</v>
       </c>
       <c r="R48" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="S48">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -5718,12 +5731,12 @@
       </c>
       <c r="Y48">
         <f t="shared" si="0"/>
-        <v>95.813953488372093</v>
+        <v>94.996070212208537</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -5738,37 +5751,37 @@
         <v>235</v>
       </c>
       <c r="F49" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G49" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H49" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J49">
-        <v>1137138</v>
+        <v>240176</v>
       </c>
       <c r="K49" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L49">
-        <v>3635</v>
+        <v>3708</v>
       </c>
       <c r="M49">
-        <v>3589</v>
+        <v>3683</v>
       </c>
       <c r="N49">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="O49">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="P49">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="Q49">
         <v>3870</v>
@@ -5796,168 +5809,168 @@
       </c>
       <c r="Y49">
         <f t="shared" si="0"/>
-        <v>93.927648578811372</v>
+        <v>95.813953488372093</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B50" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B50" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>233</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>234</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>235</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I50" s="1">
-        <v>6</v>
-      </c>
-      <c r="J50" s="1">
-        <v>192524</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="L50" s="1">
-        <v>3642</v>
-      </c>
-      <c r="M50" s="1">
-        <v>3619</v>
-      </c>
-      <c r="N50" s="1">
-        <v>23</v>
-      </c>
-      <c r="O50" s="1">
-        <v>56</v>
-      </c>
-      <c r="P50" s="1">
-        <v>172</v>
-      </c>
-      <c r="Q50" s="1">
+      <c r="F50" t="s">
+        <v>496</v>
+      </c>
+      <c r="G50" t="s">
+        <v>497</v>
+      </c>
+      <c r="H50" t="s">
+        <v>498</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>1137138</v>
+      </c>
+      <c r="K50" t="s">
+        <v>499</v>
+      </c>
+      <c r="L50">
+        <v>3635</v>
+      </c>
+      <c r="M50">
+        <v>3589</v>
+      </c>
+      <c r="N50">
+        <v>46</v>
+      </c>
+      <c r="O50">
+        <v>127</v>
+      </c>
+      <c r="P50">
+        <v>108</v>
+      </c>
+      <c r="Q50">
         <v>3870</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="R50" t="s">
         <v>240</v>
       </c>
-      <c r="S50" s="1">
-        <v>95</v>
-      </c>
-      <c r="T50" s="1">
-        <v>0</v>
-      </c>
-      <c r="U50" s="1">
-        <v>0</v>
-      </c>
-      <c r="V50" s="1">
-        <v>0</v>
-      </c>
-      <c r="W50" s="1">
-        <v>0</v>
-      </c>
-      <c r="X50" s="1" t="s">
+      <c r="S50">
+        <v>97</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
         <v>9</v>
       </c>
       <c r="Y50">
         <f t="shared" si="0"/>
-        <v>94.108527131782949</v>
+        <v>93.927648578811372</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E51" t="s">
-        <v>242</v>
-      </c>
-      <c r="F51" t="s">
-        <v>243</v>
-      </c>
-      <c r="G51" t="s">
-        <v>244</v>
-      </c>
-      <c r="H51" t="s">
-        <v>245</v>
-      </c>
-      <c r="I51">
-        <v>8</v>
-      </c>
-      <c r="J51">
-        <v>765440</v>
-      </c>
-      <c r="K51" t="s">
-        <v>246</v>
-      </c>
-      <c r="L51">
-        <v>2819</v>
-      </c>
-      <c r="M51">
-        <v>2795</v>
-      </c>
-      <c r="N51">
-        <v>24</v>
-      </c>
-      <c r="O51">
-        <v>54</v>
-      </c>
-      <c r="P51">
-        <v>25</v>
-      </c>
-      <c r="Q51">
-        <v>2898</v>
-      </c>
-      <c r="R51" t="s">
-        <v>247</v>
-      </c>
-      <c r="S51">
-        <v>99</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51" t="s">
+      <c r="E51" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" s="1">
+        <v>6</v>
+      </c>
+      <c r="J51" s="1">
+        <v>192524</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L51" s="1">
+        <v>3642</v>
+      </c>
+      <c r="M51" s="1">
+        <v>3619</v>
+      </c>
+      <c r="N51" s="1">
+        <v>23</v>
+      </c>
+      <c r="O51" s="1">
+        <v>56</v>
+      </c>
+      <c r="P51" s="1">
+        <v>172</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>3870</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S51" s="1">
+        <v>95</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y51">
         <f t="shared" si="0"/>
-        <v>97.273982056590754</v>
+        <v>94.108527131782949</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -5969,40 +5982,40 @@
         <v>234</v>
       </c>
       <c r="E52" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F52" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G52" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I52">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J52">
-        <v>1314781</v>
+        <v>765440</v>
       </c>
       <c r="K52" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L52">
-        <v>2749</v>
+        <v>2819</v>
       </c>
       <c r="M52">
-        <v>2359</v>
+        <v>2795</v>
       </c>
       <c r="N52">
-        <v>390</v>
+        <v>24</v>
       </c>
       <c r="O52">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P52">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="Q52">
         <v>2898</v>
@@ -6011,7 +6024,7 @@
         <v>247</v>
       </c>
       <c r="S52">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -6030,12 +6043,12 @@
       </c>
       <c r="Y52">
         <f t="shared" si="0"/>
-        <v>94.858523119392686</v>
+        <v>97.273982056590754</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -6047,49 +6060,49 @@
         <v>234</v>
       </c>
       <c r="E53" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F53" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G53" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H53" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J53">
-        <v>930992</v>
+        <v>1314781</v>
       </c>
       <c r="K53" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L53">
-        <v>4793</v>
+        <v>2749</v>
       </c>
       <c r="M53">
-        <v>4739</v>
+        <v>2359</v>
       </c>
       <c r="N53">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="O53">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="P53">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="Q53">
-        <v>4878</v>
+        <v>2898</v>
       </c>
       <c r="R53" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="S53">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -6108,12 +6121,12 @@
       </c>
       <c r="Y53">
         <f t="shared" si="0"/>
-        <v>98.257482574825744</v>
+        <v>94.858523119392686</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -6125,49 +6138,49 @@
         <v>234</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F54" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G54" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H54" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I54">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1108050</v>
+        <v>930992</v>
       </c>
       <c r="K54" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L54">
-        <v>2570</v>
+        <v>4793</v>
       </c>
       <c r="M54">
-        <v>2548</v>
+        <v>4739</v>
       </c>
       <c r="N54">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="O54">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="P54">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="Q54">
-        <v>2898</v>
+        <v>4878</v>
       </c>
       <c r="R54" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="S54">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -6186,12 +6199,12 @@
       </c>
       <c r="Y54">
         <f t="shared" si="0"/>
-        <v>88.681849551414771</v>
+        <v>98.257482574825744</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -6203,40 +6216,40 @@
         <v>234</v>
       </c>
       <c r="E55" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F55" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G55" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H55" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J55">
-        <v>670483</v>
+        <v>1108050</v>
       </c>
       <c r="K55" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L55">
-        <v>2856</v>
+        <v>2570</v>
       </c>
       <c r="M55">
-        <v>2843</v>
+        <v>2548</v>
       </c>
       <c r="N55">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="O55">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="P55">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>2898</v>
@@ -6245,7 +6258,7 @@
         <v>247</v>
       </c>
       <c r="S55">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -6264,12 +6277,12 @@
       </c>
       <c r="Y55">
         <f t="shared" si="0"/>
-        <v>98.550724637681157</v>
+        <v>88.681849551414771</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -6281,40 +6294,40 @@
         <v>234</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F56" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G56" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H56" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>27342</v>
+        <v>670483</v>
       </c>
       <c r="K56" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L56">
-        <v>2847</v>
+        <v>2856</v>
       </c>
       <c r="M56">
-        <v>2815</v>
+        <v>2843</v>
       </c>
       <c r="N56">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="O56">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P56">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="Q56">
         <v>2898</v>
@@ -6323,7 +6336,7 @@
         <v>247</v>
       </c>
       <c r="S56">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -6342,12 +6355,12 @@
       </c>
       <c r="Y56">
         <f t="shared" si="0"/>
-        <v>98.240165631469978</v>
+        <v>98.550724637681157</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -6359,40 +6372,40 @@
         <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F57" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H57" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>933084</v>
+        <v>27342</v>
       </c>
       <c r="K57" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L57">
-        <v>2883</v>
+        <v>2847</v>
       </c>
       <c r="M57">
-        <v>2861</v>
+        <v>2815</v>
       </c>
       <c r="N57">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="O57">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P57">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="Q57">
         <v>2898</v>
@@ -6401,7 +6414,7 @@
         <v>247</v>
       </c>
       <c r="S57">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -6420,12 +6433,12 @@
       </c>
       <c r="Y57">
         <f t="shared" si="0"/>
-        <v>99.482401656314707</v>
+        <v>98.240165631469978</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>490</v>
+      <c r="A58" t="s">
+        <v>278</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -6437,49 +6450,49 @@
         <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F58" t="s">
-        <v>491</v>
+        <v>280</v>
       </c>
       <c r="G58" t="s">
-        <v>492</v>
+        <v>281</v>
       </c>
       <c r="H58" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58">
-        <v>650164</v>
+        <v>933084</v>
       </c>
       <c r="K58" t="s">
-        <v>494</v>
+        <v>283</v>
       </c>
       <c r="L58">
-        <v>3954</v>
+        <v>2883</v>
       </c>
       <c r="M58">
-        <v>3902</v>
+        <v>2861</v>
       </c>
       <c r="N58">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="O58">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="P58">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="Q58">
-        <v>4464</v>
+        <v>2898</v>
       </c>
       <c r="R58" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="S58">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -6498,12 +6511,12 @@
       </c>
       <c r="Y58">
         <f t="shared" si="0"/>
-        <v>88.575268817204304</v>
+        <v>99.482401656314707</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -6518,37 +6531,37 @@
         <v>285</v>
       </c>
       <c r="F59" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G59" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="H59" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59">
-        <v>5643</v>
+        <v>650164</v>
       </c>
       <c r="K59" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L59">
-        <v>3959</v>
+        <v>3954</v>
       </c>
       <c r="M59">
-        <v>3948</v>
+        <v>3902</v>
       </c>
       <c r="N59">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="O59">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="P59">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="Q59">
         <v>4464</v>
@@ -6557,7 +6570,7 @@
         <v>290</v>
       </c>
       <c r="S59">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -6576,12 +6589,12 @@
       </c>
       <c r="Y59">
         <f t="shared" si="0"/>
-        <v>88.687275985663078</v>
+        <v>88.575268817204304</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -6596,37 +6609,37 @@
         <v>285</v>
       </c>
       <c r="F60" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G60" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H60" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>670580</v>
+        <v>5643</v>
       </c>
       <c r="K60" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L60">
-        <v>4213</v>
+        <v>3959</v>
       </c>
       <c r="M60">
-        <v>4184</v>
+        <v>3948</v>
       </c>
       <c r="N60">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="O60">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="P60">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>4464</v>
@@ -6635,7 +6648,7 @@
         <v>290</v>
       </c>
       <c r="S60">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -6654,12 +6667,12 @@
       </c>
       <c r="Y60">
         <f t="shared" si="0"/>
-        <v>94.377240143369178</v>
+        <v>88.687275985663078</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -6674,37 +6687,37 @@
         <v>285</v>
       </c>
       <c r="F61" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G61" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H61" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>1077348</v>
+        <v>670580</v>
       </c>
       <c r="K61" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L61">
-        <v>4020</v>
+        <v>4213</v>
       </c>
       <c r="M61">
-        <v>3971</v>
+        <v>4184</v>
       </c>
       <c r="N61">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="O61">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="P61">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="Q61">
         <v>4464</v>
@@ -6713,7 +6726,7 @@
         <v>290</v>
       </c>
       <c r="S61">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -6732,12 +6745,12 @@
       </c>
       <c r="Y61">
         <f t="shared" si="0"/>
-        <v>90.053763440860209</v>
+        <v>94.377240143369178</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>284</v>
+      <c r="A62" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -6752,37 +6765,37 @@
         <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>286</v>
+        <v>501</v>
       </c>
       <c r="G62" t="s">
-        <v>287</v>
+        <v>511</v>
       </c>
       <c r="H62" t="s">
-        <v>288</v>
+        <v>512</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62">
-        <v>5627</v>
+        <v>1077348</v>
       </c>
       <c r="K62" t="s">
-        <v>289</v>
+        <v>513</v>
       </c>
       <c r="L62">
-        <v>3741</v>
+        <v>4020</v>
       </c>
       <c r="M62">
-        <v>3719</v>
+        <v>3971</v>
       </c>
       <c r="N62">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="O62">
-        <v>459</v>
+        <v>222</v>
       </c>
       <c r="P62">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>4464</v>
@@ -6791,7 +6804,7 @@
         <v>290</v>
       </c>
       <c r="S62">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -6810,324 +6823,324 @@
       </c>
       <c r="Y62">
         <f t="shared" si="0"/>
-        <v>83.803763440860209</v>
+        <v>90.053763440860209</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>233</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>234</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I63" s="1">
-        <v>11</v>
-      </c>
-      <c r="J63" s="1">
-        <v>152965</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L63" s="1">
-        <v>2825</v>
-      </c>
-      <c r="M63" s="1">
-        <v>2745</v>
-      </c>
-      <c r="N63" s="1">
-        <v>80</v>
-      </c>
-      <c r="O63" s="1">
-        <v>14</v>
-      </c>
-      <c r="P63" s="1">
-        <v>59</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>2898</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="S63" s="1">
-        <v>97</v>
-      </c>
-      <c r="T63" s="1">
-        <v>0</v>
-      </c>
-      <c r="U63" s="1">
-        <v>0</v>
-      </c>
-      <c r="V63" s="1">
-        <v>0</v>
-      </c>
-      <c r="W63" s="1">
-        <v>0</v>
-      </c>
-      <c r="X63" s="1" t="s">
+      <c r="E63" t="s">
+        <v>285</v>
+      </c>
+      <c r="F63" t="s">
+        <v>286</v>
+      </c>
+      <c r="G63" t="s">
+        <v>287</v>
+      </c>
+      <c r="H63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>5627</v>
+      </c>
+      <c r="K63" t="s">
+        <v>289</v>
+      </c>
+      <c r="L63">
+        <v>3741</v>
+      </c>
+      <c r="M63">
+        <v>3719</v>
+      </c>
+      <c r="N63">
+        <v>22</v>
+      </c>
+      <c r="O63">
+        <v>459</v>
+      </c>
+      <c r="P63">
+        <v>264</v>
+      </c>
+      <c r="Q63">
+        <v>4464</v>
+      </c>
+      <c r="R63" t="s">
+        <v>290</v>
+      </c>
+      <c r="S63">
+        <v>94</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63" t="s">
         <v>9</v>
       </c>
       <c r="Y63">
         <f t="shared" si="0"/>
-        <v>97.481021394064868</v>
+        <v>83.803763440860209</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>296</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="64" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E64" t="s">
-        <v>297</v>
-      </c>
-      <c r="F64" t="s">
-        <v>298</v>
-      </c>
-      <c r="G64" t="s">
-        <v>299</v>
-      </c>
-      <c r="H64" t="s">
-        <v>300</v>
-      </c>
-      <c r="I64">
-        <v>8</v>
-      </c>
-      <c r="J64">
-        <v>1109443</v>
-      </c>
-      <c r="K64" t="s">
-        <v>301</v>
-      </c>
-      <c r="L64">
-        <v>2577</v>
-      </c>
-      <c r="M64">
-        <v>2566</v>
-      </c>
-      <c r="N64">
+      <c r="E64" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I64" s="1">
         <v>11</v>
       </c>
-      <c r="O64">
-        <v>84</v>
-      </c>
-      <c r="P64">
-        <v>237</v>
-      </c>
-      <c r="Q64">
+      <c r="J64" s="1">
+        <v>152965</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2825</v>
+      </c>
+      <c r="M64" s="1">
+        <v>2745</v>
+      </c>
+      <c r="N64" s="1">
+        <v>80</v>
+      </c>
+      <c r="O64" s="1">
+        <v>14</v>
+      </c>
+      <c r="P64" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q64" s="1">
         <v>2898</v>
       </c>
-      <c r="R64" t="s">
+      <c r="R64" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="S64">
-        <v>91</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64" t="s">
+      <c r="S64" s="1">
+        <v>97</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y64">
         <f t="shared" si="0"/>
+        <v>97.481021394064868</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" t="s">
+        <v>298</v>
+      </c>
+      <c r="G65" t="s">
+        <v>299</v>
+      </c>
+      <c r="H65" t="s">
+        <v>300</v>
+      </c>
+      <c r="I65">
+        <v>8</v>
+      </c>
+      <c r="J65">
+        <v>1109443</v>
+      </c>
+      <c r="K65" t="s">
+        <v>301</v>
+      </c>
+      <c r="L65">
+        <v>2577</v>
+      </c>
+      <c r="M65">
+        <v>2566</v>
+      </c>
+      <c r="N65">
+        <v>11</v>
+      </c>
+      <c r="O65">
+        <v>84</v>
+      </c>
+      <c r="P65">
+        <v>237</v>
+      </c>
+      <c r="Q65">
+        <v>2898</v>
+      </c>
+      <c r="R65" t="s">
+        <v>247</v>
+      </c>
+      <c r="S65">
+        <v>91</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="0"/>
         <v>88.923395445134574</v>
       </c>
     </row>
-    <row r="65" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I66" s="1">
         <v>10</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J66" s="1">
         <v>56493</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L66" s="1">
         <v>2856</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M66" s="1">
         <v>2800</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N66" s="1">
         <v>56</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O66" s="1">
         <v>9</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P66" s="1">
         <v>33</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q66" s="1">
         <v>2898</v>
       </c>
-      <c r="R65" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="S65" s="1">
+      <c r="S66" s="1">
         <v>98</v>
       </c>
-      <c r="T65" s="1">
-        <v>0</v>
-      </c>
-      <c r="U65" s="1">
-        <v>0</v>
-      </c>
-      <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="1">
-        <v>0</v>
-      </c>
-      <c r="X65" s="1" t="s">
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y65">
-        <f t="shared" ref="Y65:Y82" si="1">L65*100/Q65</f>
+      <c r="Y66">
+        <f t="shared" ref="Y66:Y83" si="1">L66*100/Q66</f>
         <v>98.550724637681157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>307</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>233</v>
-      </c>
-      <c r="D66" t="s">
-        <v>234</v>
-      </c>
-      <c r="E66" t="s">
-        <v>308</v>
-      </c>
-      <c r="F66" t="s">
-        <v>155</v>
-      </c>
-      <c r="G66" t="s">
-        <v>309</v>
-      </c>
-      <c r="H66" t="s">
-        <v>310</v>
-      </c>
-      <c r="I66">
-        <v>14</v>
-      </c>
-      <c r="J66">
-        <v>1314777</v>
-      </c>
-      <c r="K66" t="s">
-        <v>311</v>
-      </c>
-      <c r="L66">
-        <v>2788</v>
-      </c>
-      <c r="M66">
-        <v>2773</v>
-      </c>
-      <c r="N66">
-        <v>15</v>
-      </c>
-      <c r="O66">
-        <v>33</v>
-      </c>
-      <c r="P66">
-        <v>77</v>
-      </c>
-      <c r="Q66">
-        <v>2898</v>
-      </c>
-      <c r="R66" t="s">
-        <v>247</v>
-      </c>
-      <c r="S66">
-        <v>97</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="1"/>
-        <v>96.204278812974465</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -7136,52 +7149,52 @@
         <v>233</v>
       </c>
       <c r="D67" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F67" t="s">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="G67" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J67">
-        <v>1330018</v>
+        <v>1314777</v>
       </c>
       <c r="K67" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L67">
-        <v>1728</v>
+        <v>2788</v>
       </c>
       <c r="M67">
-        <v>1703</v>
+        <v>2773</v>
       </c>
       <c r="N67">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O67">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="P67">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="Q67">
-        <v>1764</v>
+        <v>2898</v>
       </c>
       <c r="R67" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="S67">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -7200,12 +7213,12 @@
       </c>
       <c r="Y67">
         <f t="shared" si="1"/>
-        <v>97.959183673469383</v>
+        <v>96.204278812974465</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -7214,43 +7227,43 @@
         <v>233</v>
       </c>
       <c r="D68" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F68" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G68" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H68" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68">
-        <v>215250</v>
+        <v>1330018</v>
       </c>
       <c r="K68" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L68">
-        <v>1690</v>
+        <v>1728</v>
       </c>
       <c r="M68">
-        <v>1687</v>
+        <v>1703</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="O68">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P68">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="Q68">
         <v>1764</v>
@@ -7259,7 +7272,7 @@
         <v>319</v>
       </c>
       <c r="S68">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -7278,12 +7291,12 @@
       </c>
       <c r="Y68">
         <f t="shared" si="1"/>
-        <v>95.804988662131521</v>
+        <v>97.959183673469383</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -7295,37 +7308,37 @@
         <v>321</v>
       </c>
       <c r="E69" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F69" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G69" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H69" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I69">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>43049</v>
+        <v>215250</v>
       </c>
       <c r="K69" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L69">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="M69">
-        <v>1671</v>
+        <v>1687</v>
       </c>
       <c r="N69">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P69">
         <v>58</v>
@@ -7356,12 +7369,12 @@
       </c>
       <c r="Y69">
         <f t="shared" si="1"/>
-        <v>95.238095238095241</v>
+        <v>95.804988662131521</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -7370,43 +7383,43 @@
         <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E70" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F70" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G70" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H70" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J70">
-        <v>418459</v>
+        <v>43049</v>
       </c>
       <c r="K70" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L70">
-        <v>1620</v>
+        <v>1680</v>
       </c>
       <c r="M70">
-        <v>1464</v>
+        <v>1671</v>
       </c>
       <c r="N70">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="O70">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P70">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="Q70">
         <v>1764</v>
@@ -7415,7 +7428,7 @@
         <v>319</v>
       </c>
       <c r="S70">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -7434,12 +7447,12 @@
       </c>
       <c r="Y70">
         <f t="shared" si="1"/>
-        <v>91.836734693877546</v>
+        <v>95.238095238095241</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -7448,43 +7461,43 @@
         <v>233</v>
       </c>
       <c r="D71" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E71" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F71" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G71" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H71" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J71">
-        <v>237631</v>
+        <v>418459</v>
       </c>
       <c r="K71" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L71">
-        <v>1754</v>
+        <v>1620</v>
       </c>
       <c r="M71">
-        <v>1752</v>
+        <v>1464</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="Q71">
         <v>1764</v>
@@ -7493,7 +7506,7 @@
         <v>319</v>
       </c>
       <c r="S71">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -7512,12 +7525,12 @@
       </c>
       <c r="Y71">
         <f t="shared" si="1"/>
-        <v>99.43310657596372</v>
+        <v>91.836734693877546</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -7526,43 +7539,43 @@
         <v>233</v>
       </c>
       <c r="D72" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E72" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F72" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G72" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H72" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>237631</v>
+      </c>
+      <c r="K72" t="s">
+        <v>344</v>
+      </c>
+      <c r="L72">
+        <v>1754</v>
+      </c>
+      <c r="M72">
+        <v>1752</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72">
         <v>4</v>
       </c>
-      <c r="J72">
-        <v>671144</v>
-      </c>
-      <c r="K72" t="s">
-        <v>351</v>
-      </c>
-      <c r="L72">
-        <v>1598</v>
-      </c>
-      <c r="M72">
-        <v>1591</v>
-      </c>
-      <c r="N72">
-        <v>7</v>
-      </c>
-      <c r="O72">
-        <v>28</v>
-      </c>
       <c r="P72">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="Q72">
         <v>1764</v>
@@ -7571,10 +7584,10 @@
         <v>319</v>
       </c>
       <c r="S72">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="T72">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -7586,226 +7599,226 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Y72">
         <f t="shared" si="1"/>
-        <v>90.589569160997726</v>
+        <v>99.43310657596372</v>
       </c>
     </row>
-    <row r="73" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B73" s="2" t="s">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I73" s="2">
-        <v>12</v>
-      </c>
-      <c r="J73" s="2">
-        <v>684364</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="L73" s="2">
-        <v>680</v>
-      </c>
-      <c r="M73" s="2">
-        <v>666</v>
-      </c>
-      <c r="N73" s="2">
-        <v>14</v>
-      </c>
-      <c r="O73" s="2">
-        <v>17</v>
-      </c>
-      <c r="P73" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>758</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="S73" s="2">
-        <v>91</v>
-      </c>
-      <c r="T73" s="2">
-        <v>0</v>
-      </c>
-      <c r="U73" s="2">
-        <v>0</v>
-      </c>
-      <c r="V73" s="2">
-        <v>0</v>
-      </c>
-      <c r="W73" s="2">
-        <v>0</v>
-      </c>
-      <c r="X73" s="2" t="s">
-        <v>9</v>
+      <c r="C73" t="s">
+        <v>233</v>
+      </c>
+      <c r="D73" t="s">
+        <v>346</v>
+      </c>
+      <c r="E73" t="s">
+        <v>347</v>
+      </c>
+      <c r="F73" t="s">
+        <v>348</v>
+      </c>
+      <c r="G73" t="s">
+        <v>349</v>
+      </c>
+      <c r="H73" t="s">
+        <v>350</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>671144</v>
+      </c>
+      <c r="K73" t="s">
+        <v>351</v>
+      </c>
+      <c r="L73">
+        <v>1598</v>
+      </c>
+      <c r="M73">
+        <v>1591</v>
+      </c>
+      <c r="N73">
+        <v>7</v>
+      </c>
+      <c r="O73">
+        <v>28</v>
+      </c>
+      <c r="P73">
+        <v>138</v>
+      </c>
+      <c r="Q73">
+        <v>1764</v>
+      </c>
+      <c r="R73" t="s">
+        <v>319</v>
+      </c>
+      <c r="S73">
+        <v>92</v>
+      </c>
+      <c r="T73">
+        <v>47</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
+        <v>30</v>
       </c>
       <c r="Y73">
         <f t="shared" si="1"/>
-        <v>89.709762532981529</v>
+        <v>90.589569160997726</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>360</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="74" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E74" t="s">
-        <v>361</v>
-      </c>
-      <c r="F74" t="s">
-        <v>362</v>
-      </c>
-      <c r="G74" t="s">
-        <v>363</v>
-      </c>
-      <c r="H74" t="s">
-        <v>364</v>
-      </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
-      <c r="J74">
-        <v>645134</v>
-      </c>
-      <c r="K74" t="s">
-        <v>365</v>
-      </c>
-      <c r="L74">
-        <v>725</v>
-      </c>
-      <c r="M74">
-        <v>697</v>
-      </c>
-      <c r="N74">
-        <v>28</v>
-      </c>
-      <c r="O74">
-        <v>7</v>
-      </c>
-      <c r="P74">
-        <v>26</v>
-      </c>
-      <c r="Q74">
+      <c r="E74" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I74" s="2">
+        <v>12</v>
+      </c>
+      <c r="J74" s="2">
+        <v>684364</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L74" s="2">
+        <v>680</v>
+      </c>
+      <c r="M74" s="2">
+        <v>666</v>
+      </c>
+      <c r="N74" s="2">
+        <v>14</v>
+      </c>
+      <c r="O74" s="2">
+        <v>17</v>
+      </c>
+      <c r="P74" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q74" s="2">
         <v>758</v>
       </c>
-      <c r="R74" t="s">
+      <c r="R74" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="S74">
-        <v>96</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74" t="s">
+      <c r="S74" s="2">
+        <v>91</v>
+      </c>
+      <c r="T74" s="2">
+        <v>0</v>
+      </c>
+      <c r="U74" s="2">
+        <v>0</v>
+      </c>
+      <c r="V74" s="2">
+        <v>0</v>
+      </c>
+      <c r="W74" s="2">
+        <v>0</v>
+      </c>
+      <c r="X74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Y74">
         <f t="shared" si="1"/>
-        <v>95.646437994722959</v>
+        <v>89.709762532981529</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D75" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E75" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F75" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G75" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H75" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>40302</v>
+        <v>645134</v>
       </c>
       <c r="K75" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L75">
-        <v>583</v>
+        <v>725</v>
       </c>
       <c r="M75">
-        <v>582</v>
+        <v>697</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="O75">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P75">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Q75">
-        <v>600</v>
+        <v>758</v>
       </c>
       <c r="R75" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="S75">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -7824,66 +7837,66 @@
       </c>
       <c r="Y75">
         <f t="shared" si="1"/>
-        <v>97.166666666666671</v>
+        <v>95.646437994722959</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D76" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E76" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F76" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G76" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="H76" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="I76">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>4874</v>
+        <v>40302</v>
       </c>
       <c r="K76" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="L76">
-        <v>1493</v>
+        <v>583</v>
       </c>
       <c r="M76">
-        <v>1252</v>
+        <v>582</v>
       </c>
       <c r="N76">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="P76">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="Q76">
-        <v>1614</v>
+        <v>600</v>
       </c>
       <c r="R76" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="S76">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -7902,12 +7915,12 @@
       </c>
       <c r="Y76">
         <f t="shared" si="1"/>
-        <v>92.503097893432468</v>
+        <v>97.166666666666671</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -7919,40 +7932,40 @@
         <v>377</v>
       </c>
       <c r="E77" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F77" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G77" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H77" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J77">
-        <v>588596</v>
+        <v>4874</v>
       </c>
       <c r="K77" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L77">
-        <v>1555</v>
+        <v>1493</v>
       </c>
       <c r="M77">
-        <v>1544</v>
+        <v>1252</v>
       </c>
       <c r="N77">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="O77">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P77">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="Q77">
         <v>1614</v>
@@ -7961,7 +7974,7 @@
         <v>382</v>
       </c>
       <c r="S77">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -7980,324 +7993,324 @@
       </c>
       <c r="Y77">
         <f t="shared" si="1"/>
-        <v>96.344485749690207</v>
+        <v>92.503097893432468</v>
       </c>
     </row>
-    <row r="78" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B78" s="1" t="s">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>383</v>
+      </c>
+      <c r="B78" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>376</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I78" s="1">
+      <c r="D78" t="s">
+        <v>377</v>
+      </c>
+      <c r="E78" t="s">
+        <v>384</v>
+      </c>
+      <c r="F78" t="s">
+        <v>385</v>
+      </c>
+      <c r="G78" t="s">
+        <v>386</v>
+      </c>
+      <c r="H78" t="s">
+        <v>387</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78" s="1">
-        <v>64522</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L78" s="1">
-        <v>1423</v>
-      </c>
-      <c r="M78" s="1">
-        <v>1404</v>
-      </c>
-      <c r="N78" s="1">
-        <v>19</v>
-      </c>
-      <c r="O78" s="1">
-        <v>61</v>
-      </c>
-      <c r="P78" s="1">
-        <v>130</v>
-      </c>
-      <c r="Q78" s="1">
+      <c r="J78">
+        <v>588596</v>
+      </c>
+      <c r="K78" t="s">
+        <v>387</v>
+      </c>
+      <c r="L78">
+        <v>1555</v>
+      </c>
+      <c r="M78">
+        <v>1544</v>
+      </c>
+      <c r="N78">
+        <v>11</v>
+      </c>
+      <c r="O78">
+        <v>25</v>
+      </c>
+      <c r="P78">
+        <v>34</v>
+      </c>
+      <c r="Q78">
         <v>1614</v>
       </c>
-      <c r="R78" s="1" t="s">
+      <c r="R78" t="s">
         <v>382</v>
       </c>
-      <c r="S78" s="1">
-        <v>91</v>
-      </c>
-      <c r="T78" s="1">
-        <v>0</v>
-      </c>
-      <c r="U78" s="1">
-        <v>0</v>
-      </c>
-      <c r="V78" s="1">
-        <v>0</v>
-      </c>
-      <c r="W78" s="1">
-        <v>0</v>
-      </c>
-      <c r="X78" s="1" t="s">
+      <c r="S78">
+        <v>97</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78" t="s">
         <v>9</v>
       </c>
       <c r="Y78">
         <f t="shared" si="1"/>
-        <v>88.166047087980175</v>
+        <v>96.344485749690207</v>
       </c>
     </row>
-    <row r="79" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    <row r="79" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="I79" s="2">
-        <v>32</v>
-      </c>
-      <c r="J79" s="2">
-        <v>1314790</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="L79" s="2">
-        <v>738</v>
-      </c>
-      <c r="M79" s="2">
-        <v>528</v>
-      </c>
-      <c r="N79" s="2">
-        <v>210</v>
-      </c>
-      <c r="O79" s="2">
-        <v>7</v>
-      </c>
-      <c r="P79" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>758</v>
-      </c>
-      <c r="R79" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="S79" s="2">
-        <v>98</v>
-      </c>
-      <c r="T79" s="2">
-        <v>0</v>
-      </c>
-      <c r="U79" s="2">
-        <v>0</v>
-      </c>
-      <c r="V79" s="2">
-        <v>0</v>
-      </c>
-      <c r="W79" s="2">
-        <v>0</v>
-      </c>
-      <c r="X79" s="2" t="s">
+      <c r="C79" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>64522</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L79" s="1">
+        <v>1423</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1404</v>
+      </c>
+      <c r="N79" s="1">
+        <v>19</v>
+      </c>
+      <c r="O79" s="1">
+        <v>61</v>
+      </c>
+      <c r="P79" s="1">
+        <v>130</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>1614</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="S79" s="1">
+        <v>91</v>
+      </c>
+      <c r="T79" s="1">
+        <v>0</v>
+      </c>
+      <c r="U79" s="1">
+        <v>0</v>
+      </c>
+      <c r="V79" s="1">
+        <v>0</v>
+      </c>
+      <c r="W79" s="1">
+        <v>0</v>
+      </c>
+      <c r="X79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y79">
         <f t="shared" si="1"/>
-        <v>97.361477572559366</v>
+        <v>88.166047087980175</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I80" s="1">
-        <v>6</v>
-      </c>
-      <c r="J80" s="1">
-        <v>215637</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="L80" s="1">
-        <v>607</v>
-      </c>
-      <c r="M80" s="1">
-        <v>605</v>
-      </c>
-      <c r="N80" s="1">
-        <v>2</v>
-      </c>
-      <c r="O80" s="1">
-        <v>55</v>
-      </c>
-      <c r="P80" s="1">
-        <v>96</v>
-      </c>
-      <c r="Q80" s="1">
+      <c r="D80" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I80" s="2">
+        <v>32</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1314790</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L80" s="2">
+        <v>738</v>
+      </c>
+      <c r="M80" s="2">
+        <v>528</v>
+      </c>
+      <c r="N80" s="2">
+        <v>210</v>
+      </c>
+      <c r="O80" s="2">
+        <v>7</v>
+      </c>
+      <c r="P80" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q80" s="2">
         <v>758</v>
       </c>
-      <c r="R80" s="1" t="s">
+      <c r="R80" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="S80" s="1">
-        <v>87</v>
-      </c>
-      <c r="T80" s="1">
-        <v>0</v>
-      </c>
-      <c r="U80" s="1">
-        <v>0</v>
-      </c>
-      <c r="V80" s="1">
-        <v>0</v>
-      </c>
-      <c r="W80" s="1">
-        <v>0</v>
-      </c>
-      <c r="X80" s="1" t="s">
+      <c r="S80" s="2">
+        <v>98</v>
+      </c>
+      <c r="T80" s="2">
+        <v>0</v>
+      </c>
+      <c r="U80" s="2">
+        <v>0</v>
+      </c>
+      <c r="V80" s="2">
+        <v>0</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0</v>
+      </c>
+      <c r="X80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Y80">
         <f t="shared" si="1"/>
-        <v>80.079155672823219</v>
+        <v>97.361477572559366</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B81" s="2" t="s">
+    <row r="81" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I81" s="2">
-        <v>48</v>
-      </c>
-      <c r="J81" s="2">
-        <v>796925</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="L81" s="2">
+      <c r="D81" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I81" s="1">
+        <v>6</v>
+      </c>
+      <c r="J81" s="1">
+        <v>215637</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L81" s="1">
+        <v>607</v>
+      </c>
+      <c r="M81" s="1">
         <v>605</v>
       </c>
-      <c r="M81" s="2">
-        <v>595</v>
-      </c>
-      <c r="N81" s="2">
-        <v>10</v>
-      </c>
-      <c r="O81" s="2">
-        <v>36</v>
-      </c>
-      <c r="P81" s="2">
-        <v>117</v>
-      </c>
-      <c r="Q81" s="2">
+      <c r="N81" s="1">
+        <v>2</v>
+      </c>
+      <c r="O81" s="1">
+        <v>55</v>
+      </c>
+      <c r="P81" s="1">
+        <v>96</v>
+      </c>
+      <c r="Q81" s="1">
         <v>758</v>
       </c>
-      <c r="R81" s="2" t="s">
+      <c r="R81" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="S81" s="2">
-        <v>84</v>
-      </c>
-      <c r="T81" s="2">
-        <v>0</v>
-      </c>
-      <c r="U81" s="2">
-        <v>0</v>
-      </c>
-      <c r="V81" s="2">
-        <v>0</v>
-      </c>
-      <c r="W81" s="2">
-        <v>0</v>
-      </c>
-      <c r="X81" s="2" t="s">
+      <c r="S81" s="1">
+        <v>87</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0</v>
+      </c>
+      <c r="V81" s="1">
+        <v>0</v>
+      </c>
+      <c r="W81" s="1">
+        <v>0</v>
+      </c>
+      <c r="X81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y81">
         <f t="shared" si="1"/>
-        <v>79.815303430079155</v>
+        <v>80.079155672823219</v>
       </c>
     </row>
     <row r="82" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>1</v>
@@ -8306,43 +8319,43 @@
         <v>395</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="I82" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="J82" s="2">
-        <v>763665</v>
+        <v>796925</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L82" s="2">
-        <v>661</v>
+        <v>605</v>
       </c>
       <c r="M82" s="2">
-        <v>655</v>
+        <v>595</v>
       </c>
       <c r="N82" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O82" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P82" s="2">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="Q82" s="2">
         <v>758</v>
@@ -8351,31 +8364,109 @@
         <v>359</v>
       </c>
       <c r="S82" s="2">
+        <v>84</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="1"/>
+        <v>79.815303430079155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I83" s="2">
+        <v>8</v>
+      </c>
+      <c r="J83" s="2">
+        <v>763665</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L83" s="2">
+        <v>661</v>
+      </c>
+      <c r="M83" s="2">
+        <v>655</v>
+      </c>
+      <c r="N83" s="2">
+        <v>6</v>
+      </c>
+      <c r="O83" s="2">
+        <v>30</v>
+      </c>
+      <c r="P83" s="2">
+        <v>67</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>758</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="S83" s="2">
         <v>91</v>
       </c>
-      <c r="T82" s="2">
+      <c r="T83" s="2">
         <v>83</v>
       </c>
-      <c r="U82" s="2">
-        <v>0</v>
-      </c>
-      <c r="V82" s="2">
-        <v>0</v>
-      </c>
-      <c r="W82" s="2">
-        <v>0</v>
-      </c>
-      <c r="X82" s="2" t="s">
+      <c r="U83" s="2">
+        <v>0</v>
+      </c>
+      <c r="V83" s="2">
+        <v>0</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
+      </c>
+      <c r="X83" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="Y82">
+      <c r="Y83">
         <f t="shared" si="1"/>
         <v>87.203166226912927</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8385,7 +8476,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8399,7 +8490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8409,7 +8500,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8423,7 +8514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8433,7 +8524,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8447,7 +8538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8457,7 +8548,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8471,7 +8562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8481,7 +8572,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8495,7 +8586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8505,7 +8596,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8519,7 +8610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8529,7 +8620,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8542,8 +8633,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="D43">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8553,7 +8644,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8566,8 +8657,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8577,7 +8668,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8590,8 +8681,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8601,7 +8692,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8614,8 +8705,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8625,7 +8716,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8638,8 +8729,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="D49">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8649,7 +8740,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8662,8 +8753,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="D50">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8673,7 +8764,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8686,8 +8777,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="D59">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8697,7 +8788,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8710,8 +8801,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="D60">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8721,7 +8812,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8734,8 +8825,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8745,7 +8836,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8758,8 +8849,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="D62">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8769,7 +8860,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8783,7 +8874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="colorScale" priority="121">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8795,7 +8886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8807,7 +8898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8819,7 +8910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="115">
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8831,7 +8922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8843,7 +8934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="colorScale" priority="113">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8855,7 +8946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="112">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8867,7 +8958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8879,7 +8970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8891,7 +8982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="colorScale" priority="109">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8903,7 +8994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8915,7 +9006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8927,7 +9018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8939,7 +9030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="colorScale" priority="105">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8951,7 +9042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8963,7 +9054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8975,7 +9066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8987,7 +9078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8999,7 +9090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9011,7 +9102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9023,7 +9114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9035,7 +9126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9047,7 +9138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9059,7 +9150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9071,7 +9162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9083,7 +9174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9095,7 +9186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9107,7 +9198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9119,7 +9210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9131,7 +9222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9143,7 +9234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9155,7 +9246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9166,8 +9257,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="colorScale" priority="84">
+  <conditionalFormatting sqref="E41">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9178,8 +9269,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="colorScale" priority="83">
+  <conditionalFormatting sqref="E42">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9190,8 +9281,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="colorScale" priority="81">
+  <conditionalFormatting sqref="E47">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9202,8 +9293,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="E48">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9214,8 +9305,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="E51">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9226,8 +9317,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="colorScale" priority="78">
+  <conditionalFormatting sqref="E52">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9238,8 +9329,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="colorScale" priority="77">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9250,8 +9341,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9262,8 +9353,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="colorScale" priority="75">
+  <conditionalFormatting sqref="E55">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9274,8 +9365,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="colorScale" priority="74">
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9286,8 +9377,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="colorScale" priority="73">
+  <conditionalFormatting sqref="E57">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9298,8 +9389,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9310,8 +9401,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="E63">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9322,8 +9413,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="E64">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9334,8 +9425,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="colorScale" priority="69">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9346,8 +9437,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9358,8 +9449,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="colorScale" priority="67">
+  <conditionalFormatting sqref="E67">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9370,8 +9461,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="E68">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9382,8 +9473,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="colorScale" priority="65">
+  <conditionalFormatting sqref="E69">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9394,8 +9485,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="E70">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9406,8 +9497,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="E71">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9418,8 +9509,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="E72">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9430,8 +9521,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="colorScale" priority="61">
+  <conditionalFormatting sqref="E73">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9442,8 +9533,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="E74">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9454,8 +9545,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="colorScale" priority="59">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9466,8 +9557,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="E76">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9478,8 +9569,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="colorScale" priority="57">
+  <conditionalFormatting sqref="E77">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9490,8 +9581,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="E78">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9502,8 +9593,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="colorScale" priority="55">
+  <conditionalFormatting sqref="E79">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9514,8 +9605,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9526,8 +9617,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="colorScale" priority="53">
+  <conditionalFormatting sqref="E81">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9538,8 +9629,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="E82">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9550,8 +9641,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="E83">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9563,7 +9654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9574,8 +9665,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S38:S41 S1:S18 S22:S35 S46:S47 S50:S57 S62:S1048576">
-    <cfRule type="colorScale" priority="123">
+  <conditionalFormatting sqref="S47:S48 S38:S39 S1:S18 S22:S35 S51:S58 S63:S1048576 S41:S42">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9586,8 +9677,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="Y1:Y39 Y41:Y1048576">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9596,6 +9687,30 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BF364215-0A4B-AD43-B9C2-07D21BF09EFB}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9705,7 +9820,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E780FC65-5DE2-7F4E-BB60-2923D346A04F}">
@@ -9718,7 +9833,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F582B145-B262-0A41-9F89-BDDDD53F8968}">
@@ -9731,7 +9846,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17F1C07D-752D-034B-A2C9-209CA3D12F4F}">
@@ -9744,7 +9859,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D45</xm:sqref>
+          <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95358A7B-F4A0-F44F-BB61-4B2A3D6A7128}">
@@ -9757,7 +9872,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48</xm:sqref>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{76C760AD-0068-F04A-B0B4-E05CEB38C62C}">
@@ -9770,7 +9885,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D49</xm:sqref>
+          <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6698E25B-5E14-5F4A-A3C3-D9034A09BFE6}">
@@ -9783,7 +9898,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F6AB55D6-261A-1048-9A59-EEA32FC4F4B5}">
@@ -9796,7 +9911,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D59</xm:sqref>
+          <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A0E8C6D-840B-7640-9ABC-8DB308C46CAE}">
@@ -9809,7 +9924,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D60</xm:sqref>
+          <xm:sqref>D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D706A04B-82F8-5442-9A73-C6D1BCC96967}">
@@ -9822,7 +9937,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D61</xm:sqref>
+          <xm:sqref>D62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BF364215-0A4B-AD43-B9C2-07D21BF09EFB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
